--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_16_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_16_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>624870.0090434031</v>
+        <v>710305.4314238498</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12433754.73901463</v>
+        <v>12445480.89855084</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6542240.18636774</v>
+        <v>6759716.467212726</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9341476.743797904</v>
+        <v>9235116.815001473</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,13 +673,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>32.55518202532718</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>232.2791855053265</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="3">
@@ -735,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>20.58721371349036</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,10 +791,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -801,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>28.33708868093411</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -835,10 +837,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>17.74051559593217</v>
       </c>
       <c r="J4" t="n">
-        <v>14.02933903925676</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>232.2791855053265</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>166.8873466185254</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="6">
@@ -972,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7271976526644</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.62520054253653</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>33.74703566813378</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527766</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>47.52263543602837</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>175.8561634490157</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1054,28 +1056,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>126.4617428240382</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>49.53165915075029</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6359113765081</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>150.1793862679149</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>114.699885070052</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888207</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.1557535054015</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400.8299815494642</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>277.7888997647646</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>50.78271931704851</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>188.7221730505807</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>283.9750607262253</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>56.98500889837832</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,10 +1423,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1546,7 +1548,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1588,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471489</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>94.81275980261485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1625,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>201.66221878632</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>74.75769145492336</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1847,16 +1849,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>145.2481701217147</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -1892,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>201.6622187863195</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2014,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,7 +2058,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>80.00124118081825</v>
+        <v>60.7424763599609</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>184.4530101301296</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2090,16 +2092,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2144,10 +2146,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>240.245153033246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2239,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2287,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>270.069702148647</v>
       </c>
       <c r="V22" t="n">
-        <v>249.9912741714855</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2324,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2333,7 +2335,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>243.2391485592467</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>174.1088523888104</v>
       </c>
     </row>
     <row r="24">
@@ -2485,7 +2487,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -2530,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>62.09581973348992</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2552,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>282.4605077549103</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>218.1690567639045</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>163.6898441249714</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2725,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>30.96411613815228</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2795,16 +2797,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>271.8036819298785</v>
       </c>
       <c r="E29" t="n">
-        <v>235.9375844494532</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2843,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>117.0859349823499</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>74.75769145492379</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3029,10 +3031,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>57.89934023899546</v>
+        <v>295.0200036045159</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3044,10 +3046,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,13 +3085,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3202,10 +3204,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>13.02719212039609</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>15.4484784967923</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3278,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>371.0050721667901</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>34.8203780065446</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492382</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>52.74455946606891</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3506,22 +3508,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>300.4879207856026</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>70.51113862850629</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3670,13 +3672,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>97.28002421814141</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3715,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>217.0914199928486</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3746,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>126.7498226612777</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3791,10 +3793,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>199.7325946875369</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>13.42874471570741</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>114.2656173771021</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3986,10 +3988,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>308.920356475714</v>
+        <v>323.9966860509058</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4031,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>37.86386236727959</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4144,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>63.13677733828244</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>586.7364457822819</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="C2" t="n">
-        <v>586.7364457822819</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D2" t="n">
-        <v>586.7364457822819</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E2" t="n">
-        <v>586.7364457822819</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F2" t="n">
-        <v>586.7364457822819</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G2" t="n">
-        <v>320.3587892151038</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>53.98113264792573</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
         <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515909</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991319</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4358,22 +4360,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>840.421463841153</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>586.7364457822819</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>586.7364457822819</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>586.7364457822819</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X2" t="n">
-        <v>586.7364457822819</v>
+        <v>820.2300801016544</v>
       </c>
       <c r="Y2" t="n">
-        <v>586.7364457822819</v>
+        <v>553.8524235344764</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>629.9105956742761</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C3" t="n">
-        <v>629.9105956742761</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D3" t="n">
-        <v>609.1154303071141</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E3" t="n">
-        <v>449.8779753016586</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F3" t="n">
-        <v>303.3434173285435</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004804</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699346</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302313</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267552</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293602</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O3" t="n">
-        <v>909.46721075609</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789494</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4437,22 +4439,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>858.0464416374626</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>629.9105956742761</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V3" t="n">
-        <v>629.9105956742761</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W3" t="n">
-        <v>629.9105956742761</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X3" t="n">
-        <v>629.9105956742761</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y3" t="n">
-        <v>629.9105956742761</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>926.0629918407079</v>
+        <v>523.6219478669376</v>
       </c>
       <c r="C4" t="n">
-        <v>926.0629918407079</v>
+        <v>523.6219478669376</v>
       </c>
       <c r="D4" t="n">
-        <v>775.9463524283722</v>
+        <v>523.6219478669376</v>
       </c>
       <c r="E4" t="n">
-        <v>628.033258845979</v>
+        <v>523.6219478669376</v>
       </c>
       <c r="F4" t="n">
-        <v>481.1433113480687</v>
+        <v>376.7320003690272</v>
       </c>
       <c r="G4" t="n">
-        <v>312.5739507030721</v>
+        <v>208.1626397240307</v>
       </c>
       <c r="H4" t="n">
-        <v>158.6525776365501</v>
+        <v>54.24126665750865</v>
       </c>
       <c r="I4" t="n">
-        <v>35.26815993472329</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227048</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075545</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407079</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407079</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="T4" t="n">
-        <v>926.0629918407079</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="U4" t="n">
-        <v>926.0629918407079</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="V4" t="n">
-        <v>926.0629918407079</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="W4" t="n">
-        <v>926.0629918407079</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="X4" t="n">
-        <v>926.0629918407079</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="Y4" t="n">
-        <v>926.0629918407079</v>
+        <v>705.2704126971773</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>761.0936519385194</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="C5" t="n">
-        <v>392.1311349981077</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="D5" t="n">
-        <v>33.86543639135722</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E5" t="n">
-        <v>33.86543639135722</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F5" t="n">
-        <v>33.86543639135722</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G5" t="n">
-        <v>33.86543639135722</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>33.86543639135722</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>33.86543639135722</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>108.4604468780274</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>270.9975490818681</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L5" t="n">
-        <v>509.5409587373966</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>806.6359018176454</v>
+        <v>495.5981834030599</v>
       </c>
       <c r="N5" t="n">
-        <v>1113.151960058966</v>
+        <v>704.5463761991315</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.251120836692</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
-        <v>1590.394365921683</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1693.271819567861</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R5" t="n">
-        <v>1693.271819567861</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1693.271819567861</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>1693.271819567861</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>1693.271819567861</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>1693.271819567861</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>1524.698742175411</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>1151.232983914331</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="Y5" t="n">
-        <v>761.0936519385194</v>
+        <v>522.1002068716687</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.8121952449673</v>
+        <v>170.0315200613718</v>
       </c>
       <c r="C6" t="n">
-        <v>757.3591659638403</v>
+        <v>170.0315200613718</v>
       </c>
       <c r="D6" t="n">
-        <v>608.424756302589</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>449.1873012971336</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
-        <v>302.6527433240186</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>165.5545638768828</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>67.95335120765397</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>33.86543639135722</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>59.47586665324408</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>181.4029958650489</v>
+        <v>192.1295835699337</v>
       </c>
       <c r="L6" t="n">
-        <v>391.6716089877833</v>
+        <v>338.8740072302305</v>
       </c>
       <c r="M6" t="n">
-        <v>656.4020309445239</v>
+        <v>529.4746963267544</v>
       </c>
       <c r="N6" t="n">
-        <v>942.5477243562511</v>
+        <v>739.5286634293595</v>
       </c>
       <c r="O6" t="n">
-        <v>1182.095335530448</v>
+        <v>909.4672107560895</v>
       </c>
       <c r="P6" t="n">
-        <v>1419.424910699118</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
-        <v>1693.078019232574</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1693.271819567861</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1693.271819567861</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T6" t="n">
-        <v>1693.271819567861</v>
+        <v>839.8806757600601</v>
       </c>
       <c r="U6" t="n">
-        <v>1693.271819567861</v>
+        <v>839.8806757600601</v>
       </c>
       <c r="V6" t="n">
-        <v>1693.271819567861</v>
+        <v>839.8806757600601</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.639331235522</v>
+        <v>585.6433190318585</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.787831029989</v>
+        <v>377.7918188263257</v>
       </c>
       <c r="Y6" t="n">
-        <v>1100.027532265035</v>
+        <v>170.0315200613718</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>816.7779241755683</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="C7" t="n">
-        <v>816.7779241755683</v>
+        <v>927.1163858403294</v>
       </c>
       <c r="D7" t="n">
-        <v>666.6612847632325</v>
+        <v>776.9997464279936</v>
       </c>
       <c r="E7" t="n">
-        <v>616.6293058230807</v>
+        <v>629.0866528456005</v>
       </c>
       <c r="F7" t="n">
-        <v>469.7393583251704</v>
+        <v>482.1967053476902</v>
       </c>
       <c r="G7" t="n">
-        <v>301.4202559246571</v>
+        <v>313.6273447026936</v>
       </c>
       <c r="H7" t="n">
-        <v>149.7239061590865</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="I7" t="n">
-        <v>33.86543639135722</v>
+        <v>36.32155393434481</v>
       </c>
       <c r="J7" t="n">
-        <v>36.28512133652171</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>170.0982437128593</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>396.8594047119579</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
-        <v>646.3363778191526</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>895.3159625361639</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O7" t="n">
-        <v>1109.272612021379</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
-        <v>1268.828805580464</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q7" t="n">
-        <v>1295.862163397012</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1295.862163397012</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>1295.862163397012</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>1071.462412381455</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>1071.462412381455</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>816.7779241755683</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>816.7779241755683</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X7" t="n">
-        <v>816.7779241755683</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y7" t="n">
-        <v>816.7779241755683</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1980.1279287449</v>
+        <v>1230.636903877521</v>
       </c>
       <c r="C8" t="n">
-        <v>1611.165411804488</v>
+        <v>861.6743869371094</v>
       </c>
       <c r="D8" t="n">
-        <v>1252.899713197738</v>
+        <v>503.4086883303589</v>
       </c>
       <c r="E8" t="n">
-        <v>867.1114605994937</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="F8" t="n">
-        <v>456.1255558098862</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816084</v>
@@ -4829,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V8" t="n">
-        <v>2353.59368700598</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="W8" t="n">
-        <v>2353.59368700598</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="X8" t="n">
-        <v>1980.1279287449</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="Y8" t="n">
-        <v>1980.1279287449</v>
+        <v>1617.236743941643</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
@@ -4884,22 +4886,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605188</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L9" t="n">
-        <v>979.6730931919906</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.935112151211</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1730.220240748156</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O9" t="n">
-        <v>2062.290675924318</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P9" t="n">
-        <v>2309.473409756615</v>
+        <v>2362.9309660677</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>621.7403896492181</v>
+        <v>940.7932119894607</v>
       </c>
       <c r="C10" t="n">
-        <v>621.7403896492181</v>
+        <v>771.8570290615538</v>
       </c>
       <c r="D10" t="n">
         <v>621.7403896492181</v>
@@ -4954,22 +4956,22 @@
         <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4984,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1585.150443996671</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1388.521696156532</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1165.543215351267</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U10" t="n">
-        <v>876.4248778551049</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="V10" t="n">
-        <v>621.7403896492181</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="W10" t="n">
-        <v>621.7403896492181</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="X10" t="n">
-        <v>621.7403896492181</v>
+        <v>1343.23425596323</v>
       </c>
       <c r="Y10" t="n">
-        <v>621.7403896492181</v>
+        <v>1122.4416768197</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1308.370295943747</v>
+        <v>1175.30093260579</v>
       </c>
       <c r="C11" t="n">
-        <v>939.4077790033357</v>
+        <v>806.3384156653781</v>
       </c>
       <c r="D11" t="n">
-        <v>581.1420803965852</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="E11" t="n">
-        <v>581.1420803965852</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F11" t="n">
-        <v>581.1420803965852</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G11" t="n">
-        <v>166.0696302415817</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
         <v>108.5090151927147</v>
@@ -5039,7 +5041,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
         <v>589.2106210810553</v>
@@ -5051,13 +5053,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
@@ -5072,19 +5074,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450753</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180639</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.509627919559</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="Y11" t="n">
-        <v>1308.370295943747</v>
+        <v>1561.900772669911</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
@@ -5121,43 +5123,43 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
@@ -5197,16 +5199,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5218,22 +5220,22 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W13" t="n">
         <v>1722.044275313594</v>
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2071.975386180639</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C14" t="n">
         <v>1976.204921733553</v>
@@ -5273,13 +5275,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5294,34 +5296,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450753</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.975386180639</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X14" t="n">
-        <v>2071.975386180639</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y14" t="n">
-        <v>2071.975386180639</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="15">
@@ -5346,19 +5348,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L15" t="n">
         <v>765.1517452158131</v>
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>142.0249360836212</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C16" t="n">
-        <v>142.0249360836212</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D16" t="n">
-        <v>142.0249360836212</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E16" t="n">
-        <v>142.0249360836212</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F16" t="n">
-        <v>142.0249360836212</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G16" t="n">
-        <v>142.0249360836212</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H16" t="n">
-        <v>142.0249360836212</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581905</v>
@@ -5455,31 +5457,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V16" t="n">
-        <v>880.2242361621292</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W16" t="n">
-        <v>590.8070661251686</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X16" t="n">
-        <v>362.8175152271513</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y16" t="n">
-        <v>142.0249360836212</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>921.7704558796265</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C17" t="n">
-        <v>552.8079389392149</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D17" t="n">
-        <v>406.0926155839475</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E17" t="n">
-        <v>406.0926155839475</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F17" t="n">
-        <v>406.0926155839475</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G17" t="n">
         <v>406.0926155839475</v>
@@ -5510,55 +5512,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450754</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.97538618064</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X17" t="n">
-        <v>1698.50962791956</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y17" t="n">
-        <v>1308.370295943748</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5625,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>994.2880032601528</v>
+        <v>923.9108438165264</v>
       </c>
       <c r="C19" t="n">
-        <v>825.3518203322459</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="D19" t="n">
-        <v>675.2351809199101</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E19" t="n">
-        <v>527.322087337517</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F19" t="n">
-        <v>380.4321398396067</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G19" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5695,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T19" t="n">
-        <v>1705.527932658019</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U19" t="n">
-        <v>1624.71859813194</v>
+        <v>1554.341438688313</v>
       </c>
       <c r="V19" t="n">
-        <v>1624.71859813194</v>
+        <v>1554.341438688313</v>
       </c>
       <c r="W19" t="n">
-        <v>1624.71859813194</v>
+        <v>1554.341438688313</v>
       </c>
       <c r="X19" t="n">
-        <v>1396.729047233923</v>
+        <v>1326.351887790296</v>
       </c>
       <c r="Y19" t="n">
-        <v>1175.936468090393</v>
+        <v>1105.559308646766</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1179.52858457759</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C20" t="n">
-        <v>810.5660676371781</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D20" t="n">
-        <v>452.3003690304276</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E20" t="n">
-        <v>66.51211643218343</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F20" t="n">
-        <v>66.51211643218343</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>2866.09759726723</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V20" t="n">
-        <v>2535.034709923659</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W20" t="n">
-        <v>2182.266054653545</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X20" t="n">
-        <v>1808.800296392465</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="Y20" t="n">
-        <v>1566.128424641711</v>
+        <v>2531.483610522581</v>
       </c>
     </row>
     <row r="21">
@@ -5820,22 +5822,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>533.4780323548192</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="C22" t="n">
-        <v>364.5418494269123</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="D22" t="n">
-        <v>214.4252100145765</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="E22" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088493</v>
+        <v>3133.919937435997</v>
       </c>
       <c r="T22" t="n">
-        <v>1705.527932658019</v>
+        <v>2912.153322005523</v>
       </c>
       <c r="U22" t="n">
-        <v>1416.425065783662</v>
+        <v>2639.355643067496</v>
       </c>
       <c r="V22" t="n">
-        <v>1163.908627226606</v>
+        <v>2384.671154861609</v>
       </c>
       <c r="W22" t="n">
-        <v>1163.908627226606</v>
+        <v>2095.253984824649</v>
       </c>
       <c r="X22" t="n">
-        <v>935.9190763285891</v>
+        <v>1867.264433926631</v>
       </c>
       <c r="Y22" t="n">
-        <v>715.126497185059</v>
+        <v>1646.471854783101</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2303.170539913434</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C23" t="n">
-        <v>1934.208022973022</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D23" t="n">
-        <v>1575.942324366272</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E23" t="n">
-        <v>1190.154071768027</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F23" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.605821609172</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U23" t="n">
-        <v>3325.605821609172</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V23" t="n">
-        <v>3325.605821609172</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W23" t="n">
-        <v>3325.605821609172</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X23" t="n">
-        <v>3079.909711953368</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="Y23" t="n">
-        <v>2689.770379977556</v>
+        <v>2006.398526988078</v>
       </c>
     </row>
     <row r="24">
@@ -6057,22 +6059,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1091.613680441807</v>
+        <v>2343.035006464574</v>
       </c>
       <c r="C25" t="n">
-        <v>922.6774975139006</v>
+        <v>2174.098823536667</v>
       </c>
       <c r="D25" t="n">
-        <v>772.5608581015648</v>
+        <v>2023.982184124332</v>
       </c>
       <c r="E25" t="n">
-        <v>624.6477645191717</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="F25" t="n">
-        <v>477.7578170212613</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="G25" t="n">
-        <v>310.0549803959803</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H25" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218345</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J25" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L25" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M25" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N25" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O25" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P25" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q25" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R25" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S25" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T25" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U25" t="n">
-        <v>1927.294548088493</v>
+        <v>3262.882771373322</v>
       </c>
       <c r="V25" t="n">
-        <v>1927.294548088493</v>
+        <v>3262.882771373322</v>
       </c>
       <c r="W25" t="n">
-        <v>1722.044275313594</v>
+        <v>2973.465601336361</v>
       </c>
       <c r="X25" t="n">
-        <v>1494.054724415577</v>
+        <v>2745.476050438344</v>
       </c>
       <c r="Y25" t="n">
-        <v>1273.262145272047</v>
+        <v>2524.683471294814</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2345.167438673965</v>
+        <v>1418.660964416653</v>
       </c>
       <c r="C26" t="n">
-        <v>1976.204921733553</v>
+        <v>1418.660964416653</v>
       </c>
       <c r="D26" t="n">
-        <v>1617.939223126803</v>
+        <v>1060.395265809903</v>
       </c>
       <c r="E26" t="n">
-        <v>1232.150970528558</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F26" t="n">
-        <v>821.1650657389509</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I26" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
         <v>3018.302393296687</v>
@@ -6254,22 +6256,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V26" t="n">
-        <v>3325.605821609171</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W26" t="n">
-        <v>3325.605821609171</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X26" t="n">
-        <v>2952.140063348092</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y26" t="n">
-        <v>2731.767278738087</v>
+        <v>1418.660964416653</v>
       </c>
     </row>
     <row r="27">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1464.823389952862</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="C28" t="n">
-        <v>1464.823389952862</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="D28" t="n">
-        <v>1464.823389952862</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="E28" t="n">
-        <v>1464.823389952862</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="F28" t="n">
-        <v>1464.823389952862</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="G28" t="n">
-        <v>1464.823389952862</v>
+        <v>195.1146786018707</v>
       </c>
       <c r="H28" t="n">
-        <v>1464.823389952862</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I28" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J28" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K28" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L28" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N28" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O28" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P28" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>3325.605821609171</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S28" t="n">
-        <v>3133.919937435998</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T28" t="n">
-        <v>2912.153322005524</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U28" t="n">
-        <v>2623.050455131167</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V28" t="n">
-        <v>2368.365966925281</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W28" t="n">
-        <v>2078.94879688832</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X28" t="n">
-        <v>1850.959245990303</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y28" t="n">
-        <v>1630.166666846773</v>
+        <v>362.8175152271517</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1032.061124352531</v>
+        <v>1921.870414581995</v>
       </c>
       <c r="C29" t="n">
-        <v>663.098607412119</v>
+        <v>1552.907897641583</v>
       </c>
       <c r="D29" t="n">
-        <v>304.8329088053685</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E29" t="n">
-        <v>66.51211643218342</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
-        <v>66.51211643218342</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R29" t="n">
         <v>3325.605821609171</v>
@@ -6491,22 +6493,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U29" t="n">
-        <v>2866.097597267229</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V29" t="n">
-        <v>2535.034709923658</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="W29" t="n">
-        <v>2182.266054653544</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="X29" t="n">
-        <v>1808.800296392464</v>
+        <v>2698.609586621928</v>
       </c>
       <c r="Y29" t="n">
-        <v>1418.660964416652</v>
+        <v>2308.470254646116</v>
       </c>
     </row>
     <row r="30">
@@ -6516,46 +6518,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I30" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O30" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P30" t="n">
         <v>2407.411984886741</v>
@@ -6573,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6582,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2440.490738531497</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="C31" t="n">
-        <v>2271.55455560359</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="D31" t="n">
-        <v>2121.437916191254</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="E31" t="n">
-        <v>1973.524822608861</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="F31" t="n">
-        <v>1826.634875110951</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="G31" t="n">
-        <v>1708.366253916658</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="H31" t="n">
-        <v>1562.149067134516</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="I31" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J31" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K31" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L31" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M31" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N31" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O31" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P31" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q31" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>3325.605821609171</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S31" t="n">
-        <v>3325.605821609171</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T31" t="n">
-        <v>3325.605821609171</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U31" t="n">
-        <v>3325.605821609171</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V31" t="n">
-        <v>3070.921333403284</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W31" t="n">
-        <v>3070.921333403284</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X31" t="n">
-        <v>2842.931782505267</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y31" t="n">
-        <v>2622.139203361737</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>921.7704558796265</v>
+        <v>1859.132475219475</v>
       </c>
       <c r="C32" t="n">
-        <v>863.2862738200351</v>
+        <v>1561.13247157855</v>
       </c>
       <c r="D32" t="n">
-        <v>863.2862738200351</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E32" t="n">
-        <v>477.498021221791</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F32" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G32" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
@@ -6719,7 +6721,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
         <v>3325.605821609171</v>
@@ -6728,22 +6730,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U32" t="n">
-        <v>2755.806928794325</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V32" t="n">
-        <v>2424.744041450754</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W32" t="n">
-        <v>2071.97538618064</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X32" t="n">
-        <v>1698.50962791956</v>
+        <v>2635.871647259408</v>
       </c>
       <c r="Y32" t="n">
-        <v>1308.370295943748</v>
+        <v>2245.732315283597</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686075</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>846.071687106475</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218343</v>
+        <v>827.0643955080129</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228008</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M33" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>381.1049005553748</v>
+        <v>2405.758056700423</v>
       </c>
       <c r="C34" t="n">
-        <v>381.1049005553748</v>
+        <v>2236.821873772516</v>
       </c>
       <c r="D34" t="n">
-        <v>381.1049005553748</v>
+        <v>2086.70523436018</v>
       </c>
       <c r="E34" t="n">
-        <v>381.1049005553748</v>
+        <v>1938.792140777787</v>
       </c>
       <c r="F34" t="n">
-        <v>234.2149530574645</v>
+        <v>1791.902193279877</v>
       </c>
       <c r="G34" t="n">
-        <v>66.51211643218343</v>
+        <v>1624.199356654596</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218343</v>
+        <v>1477.982169872454</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J34" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K34" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L34" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M34" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N34" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O34" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P34" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q34" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R34" t="n">
-        <v>1837.464090846021</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S34" t="n">
-        <v>1645.778206672847</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T34" t="n">
-        <v>1424.011591242373</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U34" t="n">
-        <v>1134.908724368016</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V34" t="n">
-        <v>1119.304200633883</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W34" t="n">
-        <v>829.8870305969223</v>
+        <v>3036.18865157221</v>
       </c>
       <c r="X34" t="n">
-        <v>601.8974796989049</v>
+        <v>2808.199100674193</v>
       </c>
       <c r="Y34" t="n">
-        <v>381.1049005553748</v>
+        <v>2587.406521530663</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1202.866772971799</v>
+        <v>1238.038871968308</v>
       </c>
       <c r="C35" t="n">
-        <v>1202.866772971799</v>
+        <v>1238.038871968308</v>
       </c>
       <c r="D35" t="n">
-        <v>1202.866772971799</v>
+        <v>1238.038871968308</v>
       </c>
       <c r="E35" t="n">
-        <v>817.078520373555</v>
+        <v>852.2506193700638</v>
       </c>
       <c r="F35" t="n">
-        <v>406.0926155839475</v>
+        <v>441.2647145804562</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001389</v>
@@ -6959,28 +6961,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T35" t="n">
-        <v>3290.433722612661</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U35" t="n">
-        <v>3036.903245886498</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V35" t="n">
-        <v>2705.840358542927</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W35" t="n">
-        <v>2353.071703272813</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X35" t="n">
-        <v>1979.605945011733</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y35" t="n">
-        <v>1589.466613035921</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7013,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7020,7 +7022,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2097.796235700528</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C37" t="n">
-        <v>1928.860052772621</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D37" t="n">
-        <v>1778.743413360285</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E37" t="n">
-        <v>1778.743413360285</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F37" t="n">
-        <v>1778.743413360285</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G37" t="n">
-        <v>1611.040576735004</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
-        <v>1464.823389952862</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>1464.823389952862</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O37" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P37" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>3325.605821609171</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S37" t="n">
-        <v>3325.605821609171</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T37" t="n">
-        <v>3325.605821609171</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U37" t="n">
-        <v>3272.328488815162</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V37" t="n">
-        <v>3017.644000609275</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W37" t="n">
-        <v>2728.226830572315</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X37" t="n">
-        <v>2500.237279674297</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y37" t="n">
-        <v>2279.444700530767</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1822.632236038043</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C38" t="n">
-        <v>1453.669719097632</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="D38" t="n">
-        <v>1095.404020490881</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="E38" t="n">
-        <v>709.615767892637</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="F38" t="n">
-        <v>406.0926155839475</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="G38" t="n">
-        <v>406.0926155839475</v>
+        <v>137.73548878421</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912089</v>
@@ -7181,7 +7183,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7196,28 +7198,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V38" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W38" t="n">
-        <v>2972.837166339057</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X38" t="n">
-        <v>2599.371408077977</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y38" t="n">
-        <v>2209.232076102165</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7250,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1931.789305875497</v>
+        <v>2344.644740724083</v>
       </c>
       <c r="C40" t="n">
-        <v>1762.85312294759</v>
+        <v>2175.708557796176</v>
       </c>
       <c r="D40" t="n">
-        <v>1612.736483535255</v>
+        <v>2025.59191838384</v>
       </c>
       <c r="E40" t="n">
-        <v>1464.823389952862</v>
+        <v>1877.678824801447</v>
       </c>
       <c r="F40" t="n">
-        <v>1464.823389952862</v>
+        <v>1730.788877303537</v>
       </c>
       <c r="G40" t="n">
-        <v>1464.823389952862</v>
+        <v>1563.086040678256</v>
       </c>
       <c r="H40" t="n">
-        <v>1464.823389952862</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I40" t="n">
-        <v>1464.823389952862</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J40" t="n">
-        <v>1509.946022399797</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K40" t="n">
         <v>1713.933205348673</v>
       </c>
       <c r="L40" t="n">
-        <v>2030.49300379717</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M40" t="n">
-        <v>2374.650049396719</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N40" t="n">
-        <v>2716.058426102583</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O40" t="n">
-        <v>3015.388025022997</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P40" t="n">
-        <v>3247.995525456656</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R40" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S40" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T40" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U40" t="n">
-        <v>3106.321558990132</v>
+        <v>3036.502954734814</v>
       </c>
       <c r="V40" t="n">
-        <v>2851.637070784245</v>
+        <v>3036.502954734814</v>
       </c>
       <c r="W40" t="n">
-        <v>2562.219900747285</v>
+        <v>2747.085784697853</v>
       </c>
       <c r="X40" t="n">
-        <v>2334.230349849267</v>
+        <v>2747.085784697853</v>
       </c>
       <c r="Y40" t="n">
-        <v>2113.437770705737</v>
+        <v>2526.293205554323</v>
       </c>
     </row>
     <row r="41">
@@ -7385,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>921.7704558796261</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C41" t="n">
-        <v>552.8079389392144</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D41" t="n">
-        <v>194.5422403324639</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7433,28 +7435,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794324</v>
+        <v>3013.565057492288</v>
       </c>
       <c r="V41" t="n">
-        <v>2424.744041450754</v>
+        <v>2682.502170148718</v>
       </c>
       <c r="W41" t="n">
-        <v>2071.975386180639</v>
+        <v>2329.733514878603</v>
       </c>
       <c r="X41" t="n">
-        <v>1698.50962791956</v>
+        <v>1956.267756617523</v>
       </c>
       <c r="Y41" t="n">
-        <v>1308.370295943748</v>
+        <v>1566.128424641711</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7487,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7558,13 +7560,13 @@
         <v>477.7578170212613</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7591,7 +7593,7 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1913.730159486768</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S43" t="n">
         <v>1722.044275313594</v>
@@ -7622,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1491.569348694473</v>
+        <v>1921.870414581993</v>
       </c>
       <c r="C44" t="n">
-        <v>1122.606831754061</v>
+        <v>1552.907897641581</v>
       </c>
       <c r="D44" t="n">
-        <v>764.3411331473105</v>
+        <v>1194.642199034831</v>
       </c>
       <c r="E44" t="n">
-        <v>378.5528805490663</v>
+        <v>808.8539464365867</v>
       </c>
       <c r="F44" t="n">
-        <v>66.51211643218342</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060171</v>
@@ -7670,28 +7672,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V44" t="n">
-        <v>2994.5429342656</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="W44" t="n">
-        <v>2641.774278995486</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="X44" t="n">
-        <v>2268.308520734406</v>
+        <v>2698.609586621927</v>
       </c>
       <c r="Y44" t="n">
-        <v>1878.169188758594</v>
+        <v>2308.470254646115</v>
       </c>
     </row>
     <row r="45">
@@ -7722,7 +7724,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
@@ -7731,7 +7733,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>607.0615673062264</v>
+        <v>691.6489789975187</v>
       </c>
       <c r="C46" t="n">
-        <v>607.0615673062264</v>
+        <v>691.6489789975187</v>
       </c>
       <c r="D46" t="n">
-        <v>456.9449278938906</v>
+        <v>541.532339585183</v>
       </c>
       <c r="E46" t="n">
-        <v>456.9449278938906</v>
+        <v>541.532339585183</v>
       </c>
       <c r="F46" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7846,10 +7848,10 @@
         <v>1094.090022971289</v>
       </c>
       <c r="X46" t="n">
-        <v>866.1004720732712</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="Y46" t="n">
-        <v>645.3078929297411</v>
+        <v>873.2974438277585</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069086</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8076,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.82445471157979</v>
+        <v>60.51967546761148</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>2.051220519418223</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.3216690912717</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>65.05511571131484</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>138.9393975111057</v>
+        <v>84.94186588374689</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22544,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22559,13 +22561,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442037</v>
+        <v>412.83417464571</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776174</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>82.7514375215699</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,10 +22600,10 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22610,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>137.4519151731426</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="3">
@@ -22623,13 +22625,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>126.8578518511484</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -22638,13 +22640,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22689,10 +22691,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>177.4358965225434</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22702,16 +22704,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22723,10 +22725,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.4100579288764</v>
       </c>
       <c r="J4" t="n">
-        <v>1.042860059625323</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22771,7 +22773,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22784,10 +22786,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>122.4038561153565</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22796,13 +22798,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2818458970816</v>
+        <v>412.83417464571</v>
       </c>
       <c r="H5" t="n">
-        <v>308.5370958323769</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>94.01296546539885</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.1815018398515</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>209.8718965061022</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1039815783922</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>182.3536220988876</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -22860,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22911,19 +22913,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.6607451075071</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6498268080145</v>
+        <v>147.3183521488484</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8350452710705</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>75.83881971190391</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -22942,13 +22944,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>40.78507827458961</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>96.90230349581887</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -22987,19 +22989,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.3646073887348</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4014587515235</v>
+        <v>204.7191642435937</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2451165574754</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23030,16 +23032,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.71772122348978</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -23078,16 +23080,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>108.449038891289</v>
       </c>
     </row>
     <row r="9">
@@ -23176,13 +23178,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -23224,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>50.77485310252512</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>36.98748233845643</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23255,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>70.70798089445771</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>237.6227554889421</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -23476,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944209</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>270.4601319683927</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>168.0688818921491</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>21.59472895491476</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23735,16 +23737,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>209.4348714989682</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23780,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>168.0688818921495</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23902,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>206.2105970247946</v>
+        <v>225.469361845652</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>198.2808315333509</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23978,16 +23980,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24032,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.9927856228076</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24127,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24172,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>16.14213605696591</v>
       </c>
       <c r="V22" t="n">
-        <v>2.146369152342515</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24212,7 +24214,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24221,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -24257,22 +24259,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>126.4919521192223</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>212.1290862672431</v>
       </c>
     </row>
     <row r="24">
@@ -24373,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24418,13 +24420,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>224.116018472123</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>99.4698623173515</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,22 +24496,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>168.0688818921491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>16.14213605696585</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24613,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>113.7908987761685</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24683,16 +24685,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>82.87935969080445</v>
       </c>
       <c r="E29" t="n">
-        <v>145.9927856228086</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -24731,16 +24733,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>48.93987327667837</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>21.5947289549143</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24917,10 +24919,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>307.3735515320121</v>
+        <v>70.25288816649169</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24932,10 +24934,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24971,13 +24973,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25072,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>83.32522828944201</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>236.6891648270357</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25166,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>39.91665348666339</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25205,7 +25207,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>169.0975921330755</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>105.0742887270135</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>233.467278739544</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25394,22 +25396,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>106.3881249561088</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>224.0966257588142</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25558,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>47.47499069617938</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25603,16 +25605,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>69.12041821276424</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25634,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>255.1805474109841</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25679,10 +25681,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>51.26257727136507</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>75.50340795433992</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>75.50340795433981</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -25874,10 +25876,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>97.95568926599742</v>
+        <v>82.87935969080564</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -25919,13 +25921,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>141.9681178146577</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26032,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>82.2842706846488</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>524231.6472993041</v>
+        <v>524231.6472993042</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>634845.9732475918</v>
+        <v>524231.6472993042</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>784195.2636776818</v>
+        <v>784195.2636776819</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>862251.850867499</v>
+        <v>862251.8508674991</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>862251.850867499</v>
+        <v>862251.8508674991</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>862251.8508674992</v>
+        <v>862251.850867499</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>862251.850867499</v>
+        <v>862251.8508674991</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>862251.850867499</v>
+        <v>862251.8508674991</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>862251.8508674991</v>
+        <v>862251.8508674989</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>862251.850867499</v>
+        <v>862251.8508674988</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>862251.850867499</v>
+        <v>862251.8508674989</v>
       </c>
     </row>
   </sheetData>
@@ -26314,22 +26316,22 @@
         <v>203966.5811971124</v>
       </c>
       <c r="C2" t="n">
-        <v>247461.8373661097</v>
+        <v>203966.5811971125</v>
       </c>
       <c r="D2" t="n">
         <v>305971.6304943086</v>
       </c>
       <c r="E2" t="n">
+        <v>340997.0989709205</v>
+      </c>
+      <c r="F2" t="n">
+        <v>340997.0989709204</v>
+      </c>
+      <c r="G2" t="n">
+        <v>340997.0989709204</v>
+      </c>
+      <c r="H2" t="n">
         <v>340997.0989709207</v>
-      </c>
-      <c r="F2" t="n">
-        <v>340997.0989709207</v>
-      </c>
-      <c r="G2" t="n">
-        <v>340997.0989709207</v>
-      </c>
-      <c r="H2" t="n">
-        <v>340997.0989709205</v>
       </c>
       <c r="I2" t="n">
         <v>340997.0989709204</v>
@@ -26341,10 +26343,10 @@
         <v>340997.0989709204</v>
       </c>
       <c r="L2" t="n">
+        <v>340997.0989709206</v>
+      </c>
+      <c r="M2" t="n">
         <v>340997.0989709205</v>
-      </c>
-      <c r="M2" t="n">
-        <v>340997.0989709206</v>
       </c>
       <c r="N2" t="n">
         <v>340997.0989709206</v>
@@ -26353,7 +26355,7 @@
         <v>340997.0989709204</v>
       </c>
       <c r="P2" t="n">
-        <v>340997.0989709204</v>
+        <v>340997.0989709205</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>176672.6241739483</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>223886.309381909</v>
+        <v>391128.3638059434</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171904</v>
+        <v>182072.9798171906</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,19 +26383,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911404</v>
+        <v>68999.15441911416</v>
       </c>
       <c r="K3" t="n">
-        <v>41076.98154640761</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>54988.2912194686</v>
+        <v>95382.64613756971</v>
       </c>
       <c r="M3" t="n">
         <v>47552.26579341482</v>
@@ -26418,13 +26420,13 @@
         <v>14543.87419713278</v>
       </c>
       <c r="C4" t="n">
-        <v>16544.00937806854</v>
+        <v>14543.87419713277</v>
       </c>
       <c r="D4" t="n">
         <v>19788.00270570974</v>
       </c>
       <c r="E4" t="n">
-        <v>10380.3470671038</v>
+        <v>10380.34706710378</v>
       </c>
       <c r="F4" t="n">
         <v>10380.34706710378</v>
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>63047.80320426619</v>
+      </c>
+      <c r="C5" t="n">
         <v>63047.80320426621</v>
       </c>
-      <c r="C5" t="n">
-        <v>75746.87167923103</v>
-      </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
@@ -26485,10 +26487,10 @@
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="J5" t="n">
         <v>74306.3405613933</v>
@@ -26500,16 +26502,16 @@
         <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
     </row>
     <row r="6">
@@ -26519,40 +26521,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-553713.0767954797</v>
+        <v>-553713.0767954796</v>
       </c>
       <c r="C6" t="n">
-        <v>-21501.66786513814</v>
+        <v>126374.9037957133</v>
       </c>
       <c r="D6" t="n">
-        <v>-30640.45403315487</v>
+        <v>-197882.5084571893</v>
       </c>
       <c r="E6" t="n">
-        <v>74237.4315252332</v>
+        <v>74237.43152523285</v>
       </c>
       <c r="F6" t="n">
-        <v>256310.4113424236</v>
+        <v>256310.4113424234</v>
       </c>
       <c r="G6" t="n">
-        <v>256310.4113424236</v>
+        <v>256310.4113424233</v>
       </c>
       <c r="H6" t="n">
-        <v>256310.4113424234</v>
+        <v>256310.4113424235</v>
       </c>
       <c r="I6" t="n">
-        <v>256310.4113424234</v>
+        <v>256310.4113424235</v>
       </c>
       <c r="J6" t="n">
         <v>187311.2569233095</v>
       </c>
       <c r="K6" t="n">
-        <v>215233.4297960157</v>
+        <v>256310.4113424234</v>
       </c>
       <c r="L6" t="n">
-        <v>201322.1201229549</v>
+        <v>160927.7652048538</v>
       </c>
       <c r="M6" t="n">
-        <v>208758.1455490087</v>
+        <v>208758.1455490086</v>
       </c>
       <c r="N6" t="n">
         <v>256310.4113424235</v>
@@ -26561,7 +26563,7 @@
         <v>256310.4113424234</v>
       </c>
       <c r="P6" t="n">
-        <v>256310.4113424234</v>
+        <v>256310.4113424235</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>751.4467899908047</v>
+        <v>614.0550137694785</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26753,7 +26755,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>423.3179548919653</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>137.3917762213264</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>182.6181021267345</v>
+        <v>320.0098783480609</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757589</v>
+        <v>155.711808475759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>159.6040748904591</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>217.2668772080735</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.713880001506</v>
+        <v>263.7138800015065</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904588</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080738</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="M4" t="n">
         <v>190.8166233022537</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904591</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080735</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31039,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.020891618053484</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
-        <v>30.93770628339025</v>
+        <v>25.28116948649917</v>
       </c>
       <c r="I5" t="n">
-        <v>116.4629241050071</v>
+        <v>95.16927002350884</v>
       </c>
       <c r="J5" t="n">
-        <v>256.3943999677671</v>
+        <v>209.5161878388635</v>
       </c>
       <c r="K5" t="n">
-        <v>384.2687421599712</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
-        <v>476.7193540159756</v>
+        <v>389.5577350167919</v>
       </c>
       <c r="M5" t="n">
-        <v>530.4421353285343</v>
+        <v>433.4580399459294</v>
       </c>
       <c r="N5" t="n">
-        <v>539.0252436383288</v>
+        <v>440.4718441986833</v>
       </c>
       <c r="O5" t="n">
-        <v>508.9862526113094</v>
+        <v>415.9250721658381</v>
       </c>
       <c r="P5" t="n">
-        <v>434.4079907906139</v>
+        <v>354.9824263269074</v>
       </c>
       <c r="Q5" t="n">
-        <v>326.2223097190734</v>
+        <v>266.5770185656232</v>
       </c>
       <c r="R5" t="n">
-        <v>189.7610831025523</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>68.83856774639384</v>
+        <v>56.25237638702309</v>
       </c>
       <c r="T5" t="n">
-        <v>13.22395305802913</v>
+        <v>10.80613396090811</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2416713294442787</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.616319510546259</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H6" t="n">
-        <v>15.61024369395993</v>
+        <v>12.75612396528672</v>
       </c>
       <c r="I6" t="n">
-        <v>55.6495971832813</v>
+        <v>45.4748288499095</v>
       </c>
       <c r="J6" t="n">
-        <v>152.7067481433201</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
-        <v>261.0001553499195</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>350.9469182876867</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
-        <v>409.5385005449886</v>
+        <v>334.6599825043657</v>
       </c>
       <c r="N6" t="n">
-        <v>420.377766034573</v>
+        <v>343.5174364293991</v>
       </c>
       <c r="O6" t="n">
-        <v>384.5635284587848</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>308.6461353077327</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
-        <v>206.321767697098</v>
+        <v>168.598652082518</v>
       </c>
       <c r="R6" t="n">
-        <v>100.3535920670739</v>
+        <v>82.00530919736548</v>
       </c>
       <c r="S6" t="n">
-        <v>30.02242599633072</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>6.514901886807069</v>
+        <v>5.323741109944816</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1063368099043592</v>
+        <v>0.08689457742020926</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.355067981950631</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>12.04778623952471</v>
+        <v>9.845013171582792</v>
       </c>
       <c r="I7" t="n">
-        <v>40.75058985720627</v>
+        <v>33.29990140244976</v>
       </c>
       <c r="J7" t="n">
-        <v>95.80330632390964</v>
+        <v>78.28698101779071</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4342619029915</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
-        <v>201.4616525165512</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M7" t="n">
-        <v>212.4130655706794</v>
+        <v>173.5762393840511</v>
       </c>
       <c r="N7" t="n">
-        <v>207.3623576379545</v>
+        <v>169.4489843734695</v>
       </c>
       <c r="O7" t="n">
-        <v>191.5326998488038</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
-        <v>163.8893130170108</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.4684652886115</v>
+        <v>92.72230707919125</v>
       </c>
       <c r="R7" t="n">
-        <v>60.92878398843474</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>23.61513928544872</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>5.789835922879969</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07391279901548907</v>
+        <v>0.06039885381339139</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31528,16 +31530,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31549,7 +31551,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31598,7 +31600,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31610,16 +31612,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31677,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31704,7 +31706,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31713,7 +31715,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32470,40 +32472,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837919</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32622,43 +32624,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -33518,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.215670698749</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33740,7 +33742,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233475</v>
@@ -33901,7 +33903,7 @@
         <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
         <v>781.7148990095023</v>
@@ -33992,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34141,7 +34143,7 @@
         <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
         <v>738.1512123099059</v>
@@ -34229,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34451,7 +34453,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233475</v>
@@ -34466,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127262</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34796,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34875,7 +34877,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>75.34849544108084</v>
+        <v>28.47028331217717</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1788911149906</v>
+        <v>93.92060305664478</v>
       </c>
       <c r="L5" t="n">
-        <v>240.9529390459884</v>
+        <v>153.7913200468047</v>
       </c>
       <c r="M5" t="n">
-        <v>300.0959021012616</v>
+        <v>203.1118067186567</v>
       </c>
       <c r="N5" t="n">
-        <v>309.6121800417379</v>
+        <v>211.0587806020924</v>
       </c>
       <c r="O5" t="n">
-        <v>278.8880411896226</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>203.1749950353444</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.9166198446239</v>
+        <v>44.27132869117369</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>25.86912147665339</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>123.1587163755605</v>
+        <v>172.7600739089023</v>
       </c>
       <c r="L6" t="n">
-        <v>212.3925385078126</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
-        <v>267.4044666229702</v>
+        <v>192.5259485823474</v>
       </c>
       <c r="N6" t="n">
-        <v>289.0360539512396</v>
+        <v>212.1757243460658</v>
       </c>
       <c r="O6" t="n">
-        <v>241.9672840143404</v>
+        <v>171.6550983098282</v>
       </c>
       <c r="P6" t="n">
-        <v>239.7268436047173</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>276.4172813469255</v>
+        <v>28.61687799649644</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1957579144307999</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.444126207236863</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>135.1647700771086</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L7" t="n">
-        <v>229.0516777768673</v>
+        <v>192.2171678043498</v>
       </c>
       <c r="M7" t="n">
-        <v>251.99694253252</v>
+        <v>213.1601163458917</v>
       </c>
       <c r="N7" t="n">
-        <v>251.4945300171831</v>
+        <v>213.5811567526981</v>
       </c>
       <c r="O7" t="n">
-        <v>216.1178277628435</v>
+        <v>181.0986910958078</v>
       </c>
       <c r="P7" t="n">
-        <v>161.1678722819043</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.30642203691713</v>
+        <v>6.560263827496868</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,19 +35175,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35194,7 +35196,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>255.4201198419603</v>
+        <v>201.4225882146015</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35343,13 +35345,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004586</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -37166,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127274</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37388,7 +37390,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013292</v>
@@ -37549,7 +37551,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
@@ -37640,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37877,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38099,7 +38101,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013292</v>
@@ -38114,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
